--- a/public/story/story.xlsx
+++ b/public/story/story.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94468aa6da851130/Desktop/reto/public/story/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{F86CD963-E600-4D22-9A34-46E4AD2B5DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87DA79BA-20A9-4766-A54C-31C752726D91}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{F86CD963-E600-4D22-9A34-46E4AD2B5DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF08B256-7424-47AF-A61D-2379D1460819}"/>
   <bookViews>
-    <workbookView xWindow="10455" yWindow="1545" windowWidth="15480" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12690" yWindow="2805" windowWidth="11940" windowHeight="12030" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lines" sheetId="1" r:id="rId1"/>
     <sheet name="characters" sheetId="2" r:id="rId2"/>
     <sheet name="backgrounds" sheetId="3" r:id="rId3"/>
+    <sheet name="設定" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="584">
   <si>
     <t>chapter</t>
   </si>
@@ -144,9 +145,6 @@
   </si>
   <si>
     <t>バン</t>
-  </si>
-  <si>
-    <t>/story/char/ban.png</t>
   </si>
   <si>
     <t>bg_key</t>
@@ -1148,35 +1146,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>こうしてナレバトキングを目指す少年の挑戦が始まった</t>
-    <rPh sb="12" eb="14">
-      <t>メザ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショウネン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョウセン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>第1章　始まり</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>さあ始まりましたナレバトキング、まずはお馴染みのこの方のご紹介</t>
     <rPh sb="2" eb="3">
       <t>ハジ</t>
@@ -1194,6 +1163,1644 @@
   </si>
   <si>
     <t>dragon50</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ch1_001</t>
+  </si>
+  <si>
+    <t>ch1_002</t>
+  </si>
+  <si>
+    <t>ch1_003</t>
+  </si>
+  <si>
+    <t>ch1_004</t>
+  </si>
+  <si>
+    <t>ch1_010</t>
+  </si>
+  <si>
+    <t>mall</t>
+  </si>
+  <si>
+    <t>ch1_011</t>
+  </si>
+  <si>
+    <t>ch1_012</t>
+  </si>
+  <si>
+    <t>ch1_013</t>
+  </si>
+  <si>
+    <t>ch1_020</t>
+  </si>
+  <si>
+    <t>ch1_021</t>
+  </si>
+  <si>
+    <t>ch1_023</t>
+  </si>
+  <si>
+    <t>ch1_024</t>
+  </si>
+  <si>
+    <t>ch1_025</t>
+  </si>
+  <si>
+    <t>ch1_030</t>
+  </si>
+  <si>
+    <t>ch1_031</t>
+  </si>
+  <si>
+    <t>ch1_032</t>
+  </si>
+  <si>
+    <t>ch1_033</t>
+  </si>
+  <si>
+    <t>ch1_034</t>
+  </si>
+  <si>
+    <t>ch1_035</t>
+  </si>
+  <si>
+    <t>ch1_041</t>
+  </si>
+  <si>
+    <t>ch1_042</t>
+  </si>
+  <si>
+    <t>ch1_043</t>
+  </si>
+  <si>
+    <t>ch1_044</t>
+  </si>
+  <si>
+    <t>ch2_001</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>win_to</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lose_to</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>draw_to</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ch0_end</t>
+  </si>
+  <si>
+    <t>そして少年は誓う。「来年、あの舞台へ」</t>
+  </si>
+  <si>
+    <t>goto_chapter</t>
+  </si>
+  <si>
+    <t>…次の日。</t>
+  </si>
+  <si>
+    <t>daybreak</t>
+  </si>
+  <si>
+    <t>よし！今日から本気で対策するぞ！</t>
+  </si>
+  <si>
+    <t>でも、何からやればいいんだ…？</t>
+  </si>
+  <si>
+    <t>まずは情報収集！…ゲームセンター行こ！</t>
+  </si>
+  <si>
+    <t>ch1_005</t>
+  </si>
+  <si>
+    <t>ナレバト県・商店街</t>
+  </si>
+  <si>
+    <t>fade</t>
+  </si>
+  <si>
+    <t>ch1_006</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>（街の空気が、ナレバトで満ちてる…！）</t>
+  </si>
+  <si>
+    <t>ch1_007</t>
+  </si>
+  <si>
+    <t>arcade</t>
+  </si>
+  <si>
+    <t>ゲームセンター</t>
+  </si>
+  <si>
+    <t>ch1_008</t>
+  </si>
+  <si>
+    <t>うおっ、ナレバトの筐体がある！</t>
+  </si>
+  <si>
+    <t>ch1_009</t>
+  </si>
+  <si>
+    <t>yaguchi</t>
+  </si>
+  <si>
+    <t>へぇ…君もナレバトやるんだ。</t>
+  </si>
+  <si>
+    <t>ライバル登場：ヤグチ</t>
+  </si>
+  <si>
+    <t>え！？君は…？</t>
+  </si>
+  <si>
+    <t>ヤグチ。来年のキング、俺が獲る。</t>
+  </si>
+  <si>
+    <t>ikusakotone</t>
+  </si>
+  <si>
+    <t>…こんにちは。あなた、目が本気。</t>
+  </si>
+  <si>
+    <t>ライバル登場：イクサ コトネ</t>
+  </si>
+  <si>
+    <t>君もナレバトやってるの？</t>
+  </si>
+  <si>
+    <t>ch1_014</t>
+  </si>
+  <si>
+    <t>うん。私は「積み上げ」で勝つ。毎日少しずつ。</t>
+  </si>
+  <si>
+    <t>ch1_015</t>
+  </si>
+  <si>
+    <t>…ふん。毎日？当たり前だ。</t>
+  </si>
+  <si>
+    <t>ch1_016</t>
+  </si>
+  <si>
+    <t>（ライバル2人…！同じ年に戦う相手ってことか…！）</t>
+  </si>
+  <si>
+    <t>ch1_017</t>
+  </si>
+  <si>
+    <t>その時——</t>
+  </si>
+  <si>
+    <t>ch1_018</t>
+  </si>
+  <si>
+    <t>yankee</t>
+  </si>
+  <si>
+    <t>おいおい！その台、オレの指定席だろ！</t>
+  </si>
+  <si>
+    <t>ヤンキー登場</t>
+  </si>
+  <si>
+    <t>ch1_019</t>
+  </si>
+  <si>
+    <t>えっ、すみません…！</t>
+  </si>
+  <si>
+    <t>謝って済むかよ。腕前で決めろ。カジュアル対戦だ！</t>
+  </si>
+  <si>
+    <t>（初戦から！？でも、逃げたらダメだ…！）</t>
+  </si>
+  <si>
+    <t>battle_start</t>
+  </si>
+  <si>
+    <t>セリフ</t>
+  </si>
+  <si>
+    <t>…チッ。今日は引いてやる。だが覚えとけよ。</t>
+  </si>
+  <si>
+    <t>ハッ！弱っ！そんなのでキング狙うとか笑わせんな！</t>
+  </si>
+  <si>
+    <t>（くそ…！負けた…でも、今のが現実だ…）</t>
+  </si>
+  <si>
+    <t>ch1_026</t>
+  </si>
+  <si>
+    <t>…無茶するな。基礎が甘い。</t>
+  </si>
+  <si>
+    <t>ch1_027</t>
+  </si>
+  <si>
+    <t>大丈夫。負けは「データ」。今日の負けは、明日の勝ちにできる。</t>
+  </si>
+  <si>
+    <t>ch1_028</t>
+  </si>
+  <si>
+    <t>ありがとう…！まずは、毎日対策して強くなる！</t>
+  </si>
+  <si>
+    <t>ch1_029</t>
+  </si>
+  <si>
+    <t>帰宅！今日から毎日、少しずつ！</t>
+  </si>
+  <si>
+    <t>（まずは10問正解の習慣…だな！）</t>
+  </si>
+  <si>
+    <t>翌日——</t>
+  </si>
+  <si>
+    <t>よし、今日はショッピングモール行って、ナレバトの店を見てみよう！</t>
+  </si>
+  <si>
+    <t>うわ…でっかい…！ナレバトのポップアップもある！</t>
+  </si>
+  <si>
+    <t>……ん？君、ナレバトの冊子、真剣に読んでるね。</t>
+  </si>
+  <si>
+    <t>えっ…あなたは！？（テレビで見た…！）</t>
+  </si>
+  <si>
+    <t>ch1_036</t>
+  </si>
+  <si>
+    <t>バンだよ。…そんなに身構えなくていい。ここは買い物の途中。</t>
+  </si>
+  <si>
+    <t>ch1_037</t>
+  </si>
+  <si>
+    <t>よ、よかったら…カジュアル対戦、お願いできますか！？</t>
+  </si>
+  <si>
+    <t>ch1_038</t>
+  </si>
+  <si>
+    <t>うん。いいよ。まずは今の実力を見よう。</t>
+  </si>
+  <si>
+    <t>バンと対戦</t>
+  </si>
+  <si>
+    <t>ch1_039</t>
+  </si>
+  <si>
+    <t>（優しい…！でも、勝てる気はしない…！）</t>
+  </si>
+  <si>
+    <t>サブタイトル</t>
+  </si>
+  <si>
+    <t>…お、やるね。今の読みは良かった。</t>
+  </si>
+  <si>
+    <t>うん、現状はまだ厳しいね。でも、落ち込む必要はない。</t>
+  </si>
+  <si>
+    <t>ぜ、全然歯が立たなかった…！</t>
+  </si>
+  <si>
+    <t>強くなる道はある。まずは「月1の大会」と「エリアキング」を目標にするといい。</t>
+  </si>
+  <si>
+    <t>ch1_045</t>
+  </si>
+  <si>
+    <t>それと…全国に、強者がいる。決勝の常連10人。会って学べ。</t>
+  </si>
+  <si>
+    <t>ch1_046</t>
+  </si>
+  <si>
+    <t>会って…学ぶ…。</t>
+  </si>
+  <si>
+    <t>ch1_047</t>
+  </si>
+  <si>
+    <t>君は伸びる。…焦らず、毎日を積み上げよう。</t>
+  </si>
+  <si>
+    <t>ch1_048</t>
+  </si>
+  <si>
+    <t>…よし。全国に旅立つ！まずは、宮城だ！！</t>
+  </si>
+  <si>
+    <t>ch1_049</t>
+  </si>
+  <si>
+    <t>こうして少年の「全国修行旅」が始まった。</t>
+  </si>
+  <si>
+    <t>ch2</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>宮城行きの電車…！旅って感じだ！</t>
+  </si>
+  <si>
+    <t>ch2_002</t>
+  </si>
+  <si>
+    <t>…偶然だな。俺も宮城。</t>
+  </si>
+  <si>
+    <t>ch2_003</t>
+  </si>
+  <si>
+    <t>私も。みんな同じ方向…面白いね。</t>
+  </si>
+  <si>
+    <t>ch2_004</t>
+  </si>
+  <si>
+    <t>（ライバルと同じ目的地…燃える！）</t>
+  </si>
+  <si>
+    <t>ch2_005</t>
+  </si>
+  <si>
+    <t>sendai</t>
+  </si>
+  <si>
+    <t>宮城・仙台</t>
+  </si>
+  <si>
+    <t>ch2_006</t>
+  </si>
+  <si>
+    <t>fuyu</t>
+  </si>
+  <si>
+    <t>……君たち、観光じゃない。ナレバトの匂いがする。</t>
+  </si>
+  <si>
+    <t>ふゆ登場</t>
+  </si>
+  <si>
+    <t>ch2_007</t>
+  </si>
+  <si>
+    <t>あなたが「ふゆ」さん！？対策を教えてください！</t>
+  </si>
+  <si>
+    <t>ch2_008</t>
+  </si>
+  <si>
+    <t>いいよ。ただし条件。まず「自分の弱点」を言って。</t>
+  </si>
+  <si>
+    <t>ch2_009</t>
+  </si>
+  <si>
+    <t>えっと…記憶が雑で、すぐ取りこぼす…！</t>
+  </si>
+  <si>
+    <t>ch2_010</t>
+  </si>
+  <si>
+    <t>なら、毎日「同じタグを10問」じゃなくて「苦手の型」を10回。反復だ。</t>
+  </si>
+  <si>
+    <t>ch2_011</t>
+  </si>
+  <si>
+    <t>試す？軽く対戦しよう。</t>
+  </si>
+  <si>
+    <t>ch2_013</t>
+  </si>
+  <si>
+    <t>ch2_014</t>
+  </si>
+  <si>
+    <t>悪くない。伸びる。…でも、勝ち筋の作り方がまだ甘い。</t>
+  </si>
+  <si>
+    <t>うん。今は負けていい。負け方を覚えろ。</t>
+  </si>
+  <si>
+    <t>ch2_015</t>
+  </si>
+  <si>
+    <t>…私は負けたくない。だから、負けを先に集める。</t>
+  </si>
+  <si>
+    <t>ch2_016</t>
+  </si>
+  <si>
+    <t>俺は最短で勝つ。無駄は削る。</t>
+  </si>
+  <si>
+    <t>ch2_017</t>
+  </si>
+  <si>
+    <t>（2人とも強い…。でも、俺も追いつく！）</t>
+  </si>
+  <si>
+    <t>ch2_018</t>
+  </si>
+  <si>
+    <t>夜、宿にて</t>
+  </si>
+  <si>
+    <t>ch2_019</t>
+  </si>
+  <si>
+    <t>inn</t>
+  </si>
+  <si>
+    <t>今日の学び：反復…型…！明日から習慣にする！</t>
+  </si>
+  <si>
+    <t>ch2_020</t>
+  </si>
+  <si>
+    <t>次の目的地：沖縄（DJサウス）</t>
+  </si>
+  <si>
+    <t>ch3</t>
+  </si>
+  <si>
+    <t>ch3_001</t>
+  </si>
+  <si>
+    <t>airport</t>
+  </si>
+  <si>
+    <t>沖縄だぁぁ！！暑い！！</t>
+  </si>
+  <si>
+    <t>ch3_002</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>djsouth</t>
+  </si>
+  <si>
+    <t>Yo！ナレバトの波、乗りに来たのか？</t>
+  </si>
+  <si>
+    <t>DJサウス登場</t>
+  </si>
+  <si>
+    <t>ch3_003</t>
+  </si>
+  <si>
+    <t>はい！勢いの秘訣を教えてください！</t>
+  </si>
+  <si>
+    <t>ch3_004</t>
+  </si>
+  <si>
+    <t>勢いってのは「迷わない」ってことだ。答えを出す速度、リズム。</t>
+  </si>
+  <si>
+    <t>ch3_005</t>
+  </si>
+  <si>
+    <t>ノリで行くなら、短文タグが良い。やってみるか？</t>
+  </si>
+  <si>
+    <t>ch3_007</t>
+  </si>
+  <si>
+    <t>ch3_008</t>
+  </si>
+  <si>
+    <t>いいね！そのテンポ、伸ばせる。</t>
+  </si>
+  <si>
+    <t>遅い！迷いが長い！でも慣れりゃ勝てる！</t>
+  </si>
+  <si>
+    <t>ch3_009</t>
+  </si>
+  <si>
+    <t>（テンポ…確かに迷ってた…！）</t>
+  </si>
+  <si>
+    <t>ch3_010</t>
+  </si>
+  <si>
+    <t>その夜——</t>
+  </si>
+  <si>
+    <t>ch3_011</t>
+  </si>
+  <si>
+    <t>alley</t>
+  </si>
+  <si>
+    <t>evil1</t>
+  </si>
+  <si>
+    <t>…見つけた。旅してる新人。回収しろ。</t>
+  </si>
+  <si>
+    <t>悪の組織：黒問会</t>
+  </si>
+  <si>
+    <t>ch3_012</t>
+  </si>
+  <si>
+    <t>え…？誰だ！？</t>
+  </si>
+  <si>
+    <t>ch3_013</t>
+  </si>
+  <si>
+    <t>黒問会。才能は…不要。奪うだけだ。</t>
+  </si>
+  <si>
+    <t>ch3_015</t>
+  </si>
+  <si>
+    <t>ch3_016</t>
+  </si>
+  <si>
+    <t>…チッ。今日は撤退だ。だが覚えておけ。</t>
+  </si>
+  <si>
+    <t>フッ…雑魚。次は「心」を折る。</t>
+  </si>
+  <si>
+    <t>ch3_017</t>
+  </si>
+  <si>
+    <t>大丈夫か？…妙な連中がいる。気を付けろよ。</t>
+  </si>
+  <si>
+    <t>ch3_018</t>
+  </si>
+  <si>
+    <t>次の目的地：秋田（ノースちゃん）</t>
+  </si>
+  <si>
+    <t>ch4</t>
+  </si>
+  <si>
+    <t>ch4_001</t>
+  </si>
+  <si>
+    <t>snowtown</t>
+  </si>
+  <si>
+    <t>さむっ！？秋田ってこんな寒いの！？</t>
+  </si>
+  <si>
+    <t>ch4_002</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>…うるさい。声、響く。</t>
+  </si>
+  <si>
+    <t>ノースちゃん登場</t>
+  </si>
+  <si>
+    <t>ch4_003</t>
+  </si>
+  <si>
+    <t>ご、ごめん…！君がノースちゃん？</t>
+  </si>
+  <si>
+    <t>ch4_004</t>
+  </si>
+  <si>
+    <t>うん。…対策？「静けさ」。集中は、環境から作る。</t>
+  </si>
+  <si>
+    <t>ch4_005</t>
+  </si>
+  <si>
+    <t>…試す？</t>
+  </si>
+  <si>
+    <t>技</t>
+  </si>
+  <si>
+    <t>ch4_007</t>
+  </si>
+  <si>
+    <t>ch4_008</t>
+  </si>
+  <si>
+    <t>…いい。あなた、伸びる。</t>
+  </si>
+  <si>
+    <t>…まだ甘い。でも嫌いじゃない。</t>
+  </si>
+  <si>
+    <t>ch4_009</t>
+  </si>
+  <si>
+    <t>（ノースちゃん、言葉少ないけど…優しい…？）</t>
+  </si>
+  <si>
+    <t>ch4_010</t>
+  </si>
+  <si>
+    <t>…黒問会。最近、地方大会を荒らしてる。気を付けて。</t>
+  </si>
+  <si>
+    <t>ch4_011</t>
+  </si>
+  <si>
+    <t>次の目的地：大阪（おはようございます）</t>
+  </si>
+  <si>
+    <t>ch5</t>
+  </si>
+  <si>
+    <t>ch5_001</t>
+  </si>
+  <si>
+    <t>osaka</t>
+  </si>
+  <si>
+    <t>ohayou</t>
+  </si>
+  <si>
+    <t>おはようございます！！！！（元気）</t>
+  </si>
+  <si>
+    <t>おはようございます登場</t>
+  </si>
+  <si>
+    <t>ch5_002</t>
+  </si>
+  <si>
+    <t>テンション高っ！満点って本当ですか！？</t>
+  </si>
+  <si>
+    <t>ch5_003</t>
+  </si>
+  <si>
+    <t>本当！コツは「楽しむ」！笑ったら記憶は定着する！</t>
+  </si>
+  <si>
+    <t>ch5_004</t>
+  </si>
+  <si>
+    <t>ほな、いっちょやろか！</t>
+  </si>
+  <si>
+    <t>ch5_006</t>
+  </si>
+  <si>
+    <t>ch5_007</t>
+  </si>
+  <si>
+    <t>ナイス！今のは笑いの勝利や！</t>
+  </si>
+  <si>
+    <t>どんまい！でも笑って次や！</t>
+  </si>
+  <si>
+    <t>ch5_008</t>
+  </si>
+  <si>
+    <t>黒問会の噂は大阪にも…</t>
+  </si>
+  <si>
+    <t>ch5_009</t>
+  </si>
+  <si>
+    <t>evil2</t>
+  </si>
+  <si>
+    <t>楽しむ？…愚か。恐怖こそ支配。</t>
+  </si>
+  <si>
+    <t>ch5_011</t>
+  </si>
+  <si>
+    <t>ch5_012</t>
+  </si>
+  <si>
+    <t>…撤退。だが次は「大会」で会おう。</t>
+  </si>
+  <si>
+    <t>ふふ…折れる音がした。</t>
+  </si>
+  <si>
+    <t>ch5_013</t>
+  </si>
+  <si>
+    <t>次の目的地：福岡（ウエスト伊藤）</t>
+  </si>
+  <si>
+    <t>ch6</t>
+  </si>
+  <si>
+    <t>ch6_001</t>
+  </si>
+  <si>
+    <t>fukuoka</t>
+  </si>
+  <si>
+    <t>westito</t>
+  </si>
+  <si>
+    <t>ようこそ。データは嘘をつかない。</t>
+  </si>
+  <si>
+    <t>ウエスト伊藤登場</t>
+  </si>
+  <si>
+    <t>ch6_002</t>
+  </si>
+  <si>
+    <t>作問王の対策法、教えて！</t>
+  </si>
+  <si>
+    <t>ch6_003</t>
+  </si>
+  <si>
+    <t>「自分のミス」を集計しろ。弱点が見える。</t>
+  </si>
+  <si>
+    <t>ch6_004</t>
+  </si>
+  <si>
+    <t>君のミスは…語尾。細部だ。</t>
+  </si>
+  <si>
+    <t>ch6_006</t>
+  </si>
+  <si>
+    <t>ch6_007</t>
+  </si>
+  <si>
+    <t>改善が速い。良い。</t>
+  </si>
+  <si>
+    <t>まだ誤差が大きい。ログを取れ。</t>
+  </si>
+  <si>
+    <t>ch6_008</t>
+  </si>
+  <si>
+    <t>次の目的地：静岡（めんたいうどん）</t>
+  </si>
+  <si>
+    <t>ch7</t>
+  </si>
+  <si>
+    <t>ch7_001</t>
+  </si>
+  <si>
+    <t>shizuoka</t>
+  </si>
+  <si>
+    <t>mentaiudon</t>
+  </si>
+  <si>
+    <t>来てくれたんですね。…春夏秋冬、全部勝つのは簡単じゃない。</t>
+  </si>
+  <si>
+    <t>めんたいうどん登場</t>
+  </si>
+  <si>
+    <t>ch7_002</t>
+  </si>
+  <si>
+    <t>どうやって全部勝ったの…？</t>
+  </si>
+  <si>
+    <t>ch7_003</t>
+  </si>
+  <si>
+    <t>「切り替え」です。負けても、すぐ次の一手に集中。</t>
+  </si>
+  <si>
+    <t>ch7_004</t>
+  </si>
+  <si>
+    <t>勝負しましょう。</t>
+  </si>
+  <si>
+    <t>ch7_006</t>
+  </si>
+  <si>
+    <t>ch7_007</t>
+  </si>
+  <si>
+    <t>…いい勝負。あなた、怖いくらい伸びますね。</t>
+  </si>
+  <si>
+    <t>今は負けても大丈夫。大事なのは「切り替え」。</t>
+  </si>
+  <si>
+    <t>ch7_008</t>
+  </si>
+  <si>
+    <t>次の目的地：北海道（MAXイースト）</t>
+  </si>
+  <si>
+    <t>ch8</t>
+  </si>
+  <si>
+    <t>ch8_001</t>
+  </si>
+  <si>
+    <t>hokkaido</t>
+  </si>
+  <si>
+    <t>maxeast</t>
+  </si>
+  <si>
+    <t>よぉ。俺に会いに来た？</t>
+  </si>
+  <si>
+    <t>MAXイースト登場</t>
+  </si>
+  <si>
+    <t>ch8_002</t>
+  </si>
+  <si>
+    <t>19代目キング…技マスターのコツを！</t>
+  </si>
+  <si>
+    <t>ch8_003</t>
+  </si>
+  <si>
+    <t>技は「型」。覚えて、崩して、また戻す。余裕を作れ。</t>
+  </si>
+  <si>
+    <t>ch8_004</t>
+  </si>
+  <si>
+    <t>いくよ～。</t>
+  </si>
+  <si>
+    <t>ch8_006</t>
+  </si>
+  <si>
+    <t>ch8_007</t>
+  </si>
+  <si>
+    <t>おっ！いいね～。</t>
+  </si>
+  <si>
+    <t>まだまだ！でも嫌いじゃない。</t>
+  </si>
+  <si>
+    <t>ch8_008</t>
+  </si>
+  <si>
+    <t>次の目的地：愛知（ドラゴン50號）</t>
+  </si>
+  <si>
+    <t>ch9</t>
+  </si>
+  <si>
+    <t>ch9_001</t>
+  </si>
+  <si>
+    <t>aichi</t>
+  </si>
+  <si>
+    <t>dragon50</t>
+  </si>
+  <si>
+    <t>…来たか。己を信じる者のみ、進め。</t>
+  </si>
+  <si>
+    <t>ドラゴン50號登場</t>
+  </si>
+  <si>
+    <t>ch9_002</t>
+  </si>
+  <si>
+    <t>ワノ国問題全問正解…どうやって…？</t>
+  </si>
+  <si>
+    <t>ch9_003</t>
+  </si>
+  <si>
+    <t>信念。迷いを捨て、答えを一本にする。</t>
+  </si>
+  <si>
+    <t>ch9_004</t>
+  </si>
+  <si>
+    <t>勝負。</t>
+  </si>
+  <si>
+    <t>ch9_006</t>
+  </si>
+  <si>
+    <t>ch9_007</t>
+  </si>
+  <si>
+    <t>…よい。だが慢心するな。</t>
+  </si>
+  <si>
+    <t>…弱い。だが、心は強い。鍛えろ。</t>
+  </si>
+  <si>
+    <t>ch9_008</t>
+  </si>
+  <si>
+    <t>次の目的地：東京（たろう牛丼）</t>
+  </si>
+  <si>
+    <t>ch10</t>
+  </si>
+  <si>
+    <t>ch10_001</t>
+  </si>
+  <si>
+    <t>tokyo</t>
+  </si>
+  <si>
+    <t>しゃあ！！来たな！</t>
+  </si>
+  <si>
+    <t>たろう牛丼登場</t>
+  </si>
+  <si>
+    <t>ch10_002</t>
+  </si>
+  <si>
+    <t>友達と一緒tubeって…何者！？</t>
+  </si>
+  <si>
+    <t>ch10_003</t>
+  </si>
+  <si>
+    <t>オレは「仲間」で強くなるタイプ！一人で抱えんな！</t>
+  </si>
+  <si>
+    <t>ch10_004</t>
+  </si>
+  <si>
+    <t>ほら、勢いで一発いくぞ！</t>
+  </si>
+  <si>
+    <t>ch10_006</t>
+  </si>
+  <si>
+    <t>ch10_007</t>
+  </si>
+  <si>
+    <t>いいねぇ！ノってきた！</t>
+  </si>
+  <si>
+    <t>あちゃ～！でも次いこ次！</t>
+  </si>
+  <si>
+    <t>ch10_008</t>
+  </si>
+  <si>
+    <t>そして、最後の目的地へ——ナレバト県（グランド）</t>
+  </si>
+  <si>
+    <t>ch11</t>
+  </si>
+  <si>
+    <t>ch11_001</t>
+  </si>
+  <si>
+    <t>narebatoken</t>
+  </si>
+  <si>
+    <t>戻ってきた…ナレバト県！</t>
+  </si>
+  <si>
+    <t>ch11_002</t>
+  </si>
+  <si>
+    <t>…久しぶり。あなた、顔つき変わった。</t>
+  </si>
+  <si>
+    <t>ch11_003</t>
+  </si>
+  <si>
+    <t>ノースちゃん…！ありがとう、たくさん助けてもらった！</t>
+  </si>
+  <si>
+    <t>ch11_004</t>
+  </si>
+  <si>
+    <t>…まだ終わりじゃない。黒問会が、月1大会を狙ってる。</t>
+  </si>
+  <si>
+    <t>ch11_005</t>
+  </si>
+  <si>
+    <t>evilboss</t>
+  </si>
+  <si>
+    <t>よく集まった。才能の香りがする。</t>
+  </si>
+  <si>
+    <t>黒問会・総帥</t>
+  </si>
+  <si>
+    <t>ch11_006</t>
+  </si>
+  <si>
+    <t>黒問会…！お前らが地方大会を荒らしてたのか！</t>
+  </si>
+  <si>
+    <t>ch11_007</t>
+  </si>
+  <si>
+    <t>勝者の「記憶」を奪えば、我らは無敵。</t>
+  </si>
+  <si>
+    <t>ch11_008</t>
+  </si>
+  <si>
+    <t>まずは、お前を折る。</t>
+  </si>
+  <si>
+    <t>決戦</t>
+  </si>
+  <si>
+    <t>ch11_009</t>
+  </si>
+  <si>
+    <t>ここまでの旅、全部が俺の力だ！</t>
+  </si>
+  <si>
+    <t>ch11_011</t>
+  </si>
+  <si>
+    <t>ch11_012</t>
+  </si>
+  <si>
+    <t>…ありえない。奪えない…！？</t>
+  </si>
+  <si>
+    <t>…まだだ。次は「本戦」で潰す。</t>
+  </si>
+  <si>
+    <t>ch11_013</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>……騒がしいな。</t>
+  </si>
+  <si>
+    <t>グランド登場</t>
+  </si>
+  <si>
+    <t>ch11_014</t>
+  </si>
+  <si>
+    <t>グランド…！あなたに追いつくために旅をした！</t>
+  </si>
+  <si>
+    <t>ch11_015</t>
+  </si>
+  <si>
+    <t>一年後のキング戦…そこで答えを見せろ。今はまだ早い。</t>
+  </si>
+  <si>
+    <t>ch11_016</t>
+  </si>
+  <si>
+    <t>…わかった。月1大会、エリアキング…全部勝って、戻ってくる！</t>
+  </si>
+  <si>
+    <t>ch11_017</t>
+  </si>
+  <si>
+    <t>——少年の「一年」は、ここから本当に始まる。</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>/story/char/huyu.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/story/char/north.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/story/char/djsouth.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/story/char/maxeast.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/story/char/westito.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/story/char/grand.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/story/char/mentaiudon.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/story/char/dragon50.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/story/char/ohayou.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/story/char/yaguti.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/story/char/ikusa.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イクサコトネ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヤグチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おはようございます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ドラゴン50號</t>
+    <rPh sb="6" eb="7">
+      <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>めんたいうどん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グランド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウエスト伊藤</t>
+    <rPh sb="4" eb="6">
+      <t>イトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MAXイースト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DJサウス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ノースちゃん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kotone</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>yaguti</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dragon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gurand</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/story/bg/street.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/story/bg/arcade.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/story/bg/train.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/story/bg/mall.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/story/bg/sendai.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラクター名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>住所</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>たろう牛丼</t>
+    <rPh sb="3" eb="5">
+      <t>ギュウドン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>友達と一緒tube</t>
+    <rPh sb="0" eb="2">
+      <t>トモダチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>東京</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ふゆ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>宮城のガチクイズマニア</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>宮城</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ドラゴン50號</t>
+    <rPh sb="6" eb="7">
+      <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>愛知</t>
+    <rPh sb="0" eb="2">
+      <t>アイチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>めんたいうどん</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ナレバト春夏秋冬の陣優勝</t>
+    <rPh sb="4" eb="5">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ユウショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>静岡</t>
+    <rPh sb="0" eb="2">
+      <t>シズオカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>おはようございます</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>超難問満点</t>
+    <rPh sb="0" eb="3">
+      <t>チョウナンモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マンテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>大阪</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ノースちゃん</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>17歳の超新星</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>チョウシンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>秋田</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MAXイースト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>19代目ナレバトキング</t>
+    <rPh sb="2" eb="4">
+      <t>ダイメ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>北海道</t>
+    <rPh sb="0" eb="3">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウエスト伊藤</t>
+    <rPh sb="4" eb="6">
+      <t>イトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>14代目1巻1万問作成</t>
+    <rPh sb="2" eb="4">
+      <t>ダイメ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マンモン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>福岡</t>
+    <rPh sb="0" eb="2">
+      <t>フクオカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DJサウス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>18代目勢いに乗る男</t>
+    <rPh sb="2" eb="4">
+      <t>ダイメ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イキオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>沖縄</t>
+    <rPh sb="0" eb="2">
+      <t>オキナワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>グランド</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>19代目全王者</t>
+    <rPh sb="2" eb="4">
+      <t>ダイメ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウジャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ナレバト県</t>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ヤグチ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ライバル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>イクサ　コトネ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>肩書き</t>
+    <rPh sb="0" eb="2">
+      <t>カタガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>13代目　ワノ国問題得意</t>
+    <rPh sb="2" eb="4">
+      <t>ダイメ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クニ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トクイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>設定</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第1回からの出場者</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シュツジョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーカサスマン好きJK</t>
+    <rPh sb="7" eb="8">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダウト兄弟好きギャルJK</t>
+    <rPh sb="3" eb="5">
+      <t>キョウダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クロウ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コウカ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵組織</t>
+    <rPh sb="0" eb="3">
+      <t>テキソシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵組織のボス</t>
+    <rPh sb="0" eb="3">
+      <t>テキソシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵組織の幹部</t>
+    <rPh sb="0" eb="3">
+      <t>テキソシキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モンネ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バーセル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ギット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レンダー</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1280,6 +2887,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1567,2563 +3178,5189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M330"/>
+  <dimension ref="A1:T224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70:R70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10" customWidth="1"/>
-    <col min="3" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="56" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="13" width="10" customWidth="1"/>
+    <col min="1" max="3" width="10" customWidth="1"/>
+    <col min="4" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="56" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="18" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H10" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" t="s">
-        <v>108</v>
-      </c>
       <c r="F12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" t="s">
-        <v>108</v>
-      </c>
       <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
       <c r="F14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
-        <v>108</v>
-      </c>
       <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" t="s">
-        <v>108</v>
-      </c>
       <c r="F16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="D21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H23" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>18</v>
       </c>
-      <c r="D24" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>19</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H26" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="D27" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>18</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H28" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>19</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H29" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>13</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>18</v>
       </c>
-      <c r="D30" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>18</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>19</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H31" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>19</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H32" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>13</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>18</v>
       </c>
-      <c r="D33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" t="s">
-        <v>117</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>13</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>18</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>19</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H34" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>13</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>18</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>19</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H35" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>13</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>18</v>
       </c>
-      <c r="D36" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>13</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>18</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>19</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H37" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>13</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>18</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>19</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H38" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>13</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>18</v>
       </c>
-      <c r="D39" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" t="s">
-        <v>119</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" t="s">
+        <v>118</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>13</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>18</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>19</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H40" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>13</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>18</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>19</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H41" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>18</v>
       </c>
-      <c r="D42" t="s">
-        <v>120</v>
-      </c>
-      <c r="F42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>13</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>18</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H43" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>13</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>18</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>19</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H44" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>13</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>18</v>
       </c>
-      <c r="D45" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E45" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" t="s">
+        <v>120</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>13</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>18</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>19</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H46" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>13</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>18</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>19</v>
       </c>
-      <c r="E47" t="s">
-        <v>108</v>
-      </c>
       <c r="F47" t="s">
-        <v>108</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="G47" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>13</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>18</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>19</v>
       </c>
-      <c r="E48" t="s">
-        <v>108</v>
-      </c>
       <c r="F48" t="s">
-        <v>108</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="G48" t="s">
+        <v>107</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>13</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>18</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>19</v>
       </c>
-      <c r="E49" t="s">
-        <v>108</v>
-      </c>
       <c r="F49" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="G49" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>13</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>18</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>19</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H50" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>13</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>18</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H51" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>13</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>14</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H52" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>13</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>14</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H53" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>13</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>18</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>19</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>19</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H54" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>13</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>18</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>19</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H55" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>13</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>14</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H56" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>13</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>14</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H57" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>13</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>18</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>19</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H58" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>13</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>18</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>19</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>19</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H59" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>13</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>18</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>19</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H60" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>13</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>18</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>19</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>19</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H61" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>13</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>18</v>
       </c>
-      <c r="D62" t="s">
-        <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>121</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="G62" t="s">
+        <v>120</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>13</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>18</v>
       </c>
-      <c r="D63" t="s">
-        <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>121</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="G63" t="s">
+        <v>120</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>13</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>18</v>
       </c>
-      <c r="D64" t="s">
-        <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>121</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="G64" t="s">
+        <v>120</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>13</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>18</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H65" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>13</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>18</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>19</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H66" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>13</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>16</v>
       </c>
-      <c r="C67" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>13</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>16</v>
       </c>
-      <c r="C68" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>13</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>16</v>
       </c>
-      <c r="C69" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>13</v>
       </c>
       <c r="B70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" t="s">
         <v>14</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>15</v>
       </c>
-      <c r="G70" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H70" t="s">
+        <v>154</v>
+      </c>
+      <c r="K70" t="s">
+        <v>155</v>
+      </c>
+      <c r="N70" t="s">
+        <v>105</v>
+      </c>
+      <c r="R70">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
+        <v>156</v>
+      </c>
+      <c r="K71" t="s">
+        <v>157</v>
+      </c>
+      <c r="O71">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
+        <v>158</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s">
+        <v>159</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s">
+        <v>160</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" t="s">
         <v>14</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G75" t="s">
         <v>15</v>
       </c>
-      <c r="H71" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>106</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="H75" t="s">
+        <v>162</v>
+      </c>
+      <c r="K75" t="s">
+        <v>163</v>
+      </c>
+      <c r="O75">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s">
+        <v>166</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" t="s">
+        <v>168</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" t="s">
+        <v>169</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
+        <v>171</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79" t="s">
+        <v>173</v>
+      </c>
+      <c r="G79" t="s">
+        <v>173</v>
+      </c>
+      <c r="H79" t="s">
+        <v>174</v>
+      </c>
+      <c r="K79" t="s">
+        <v>175</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s">
+        <v>173</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
+        <v>176</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" t="s">
+        <v>173</v>
+      </c>
+      <c r="G81" t="s">
+        <v>173</v>
+      </c>
+      <c r="H81" t="s">
+        <v>177</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" t="s">
+        <v>178</v>
+      </c>
+      <c r="G82" t="s">
+        <v>178</v>
+      </c>
+      <c r="H82" t="s">
+        <v>179</v>
+      </c>
+      <c r="K82" t="s">
+        <v>180</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" t="s">
+        <v>168</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" t="s">
+        <v>178</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
+        <v>181</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D84" t="s">
+        <v>178</v>
+      </c>
+      <c r="G84" t="s">
+        <v>178</v>
+      </c>
+      <c r="H84" t="s">
+        <v>183</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" t="s">
+        <v>173</v>
+      </c>
+      <c r="G85" t="s">
+        <v>173</v>
+      </c>
+      <c r="H85" t="s">
+        <v>185</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" t="s">
+        <v>173</v>
+      </c>
+      <c r="F86" t="s">
+        <v>178</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s">
+        <v>187</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" t="s">
+        <v>168</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" t="s">
+        <v>189</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" t="s">
+        <v>191</v>
+      </c>
+      <c r="G88" t="s">
+        <v>191</v>
+      </c>
+      <c r="H88" t="s">
+        <v>192</v>
+      </c>
+      <c r="K88" t="s">
+        <v>193</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" t="s">
+        <v>168</v>
+      </c>
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
+        <v>195</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" t="s">
+        <v>168</v>
+      </c>
+      <c r="D90" t="s">
+        <v>191</v>
+      </c>
+      <c r="G90" t="s">
+        <v>191</v>
+      </c>
+      <c r="H90" t="s">
+        <v>196</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s">
+        <v>197</v>
+      </c>
+      <c r="L91" t="s">
+        <v>198</v>
+      </c>
+      <c r="M91" t="s">
+        <v>199</v>
+      </c>
+      <c r="N91" t="s">
+        <v>191</v>
+      </c>
+      <c r="O91" t="s">
+        <v>134</v>
+      </c>
+      <c r="P91" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>135</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92" t="s">
+        <v>191</v>
+      </c>
+      <c r="G92" t="s">
+        <v>191</v>
+      </c>
+      <c r="H92" t="s">
+        <v>200</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" t="s">
+        <v>168</v>
+      </c>
+      <c r="D93" t="s">
+        <v>191</v>
+      </c>
+      <c r="G93" t="s">
+        <v>191</v>
+      </c>
+      <c r="H93" t="s">
+        <v>201</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" t="s">
+        <v>168</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s">
+        <v>202</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95" t="s">
+        <v>173</v>
+      </c>
+      <c r="G95" t="s">
+        <v>173</v>
+      </c>
+      <c r="H95" t="s">
+        <v>204</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" t="s">
+        <v>168</v>
+      </c>
+      <c r="D96" t="s">
+        <v>178</v>
+      </c>
+      <c r="G96" t="s">
+        <v>178</v>
+      </c>
+      <c r="H96" t="s">
+        <v>206</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" t="s">
+        <v>168</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" t="s">
+        <v>173</v>
+      </c>
+      <c r="F97" t="s">
+        <v>178</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s">
+        <v>208</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" t="s">
         <v>16</v>
       </c>
-      <c r="C72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>106</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s">
+        <v>210</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" t="s">
+        <v>137</v>
+      </c>
+      <c r="C99" t="s">
         <v>16</v>
       </c>
-      <c r="C73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s">
+        <v>211</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B100" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" t="s">
+        <v>212</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B101" t="s">
+        <v>139</v>
+      </c>
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s">
+        <v>213</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" t="s">
+        <v>128</v>
+      </c>
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s">
+        <v>214</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>141</v>
+      </c>
+      <c r="C103" t="s">
+        <v>128</v>
+      </c>
+      <c r="D103" t="s">
+        <v>35</v>
+      </c>
+      <c r="G103" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" t="s">
+        <v>215</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>142</v>
+      </c>
+      <c r="C104" t="s">
+        <v>128</v>
+      </c>
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" t="s">
+        <v>35</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" t="s">
+        <v>216</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105" t="s">
+        <v>128</v>
+      </c>
+      <c r="D105" t="s">
+        <v>35</v>
+      </c>
+      <c r="G105" t="s">
+        <v>35</v>
+      </c>
+      <c r="H105" t="s">
+        <v>218</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>219</v>
+      </c>
+      <c r="C106" t="s">
+        <v>128</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" t="s">
+        <v>220</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" t="s">
+        <v>128</v>
+      </c>
+      <c r="D107" t="s">
+        <v>35</v>
+      </c>
+      <c r="G107" t="s">
+        <v>35</v>
+      </c>
+      <c r="H107" t="s">
+        <v>222</v>
+      </c>
+      <c r="K107" t="s">
+        <v>223</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B108" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" t="s">
+        <v>128</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" t="s">
+        <v>225</v>
+      </c>
+      <c r="L108" t="s">
+        <v>198</v>
+      </c>
+      <c r="M108" t="s">
+        <v>226</v>
+      </c>
+      <c r="N108" t="s">
+        <v>35</v>
+      </c>
+      <c r="O108" t="s">
+        <v>143</v>
+      </c>
+      <c r="P108" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>144</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B109" t="s">
+        <v>143</v>
+      </c>
+      <c r="C109" t="s">
+        <v>128</v>
+      </c>
+      <c r="D109" t="s">
+        <v>35</v>
+      </c>
+      <c r="G109" t="s">
+        <v>35</v>
+      </c>
+      <c r="H109" t="s">
+        <v>227</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B110" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" t="s">
+        <v>128</v>
+      </c>
+      <c r="D110" t="s">
+        <v>35</v>
+      </c>
+      <c r="G110" t="s">
+        <v>35</v>
+      </c>
+      <c r="H110" t="s">
+        <v>228</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B111" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" t="s">
+        <v>128</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" t="s">
+        <v>35</v>
+      </c>
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" t="s">
+        <v>229</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B112" t="s">
+        <v>146</v>
+      </c>
+      <c r="C112" t="s">
+        <v>128</v>
+      </c>
+      <c r="D112" t="s">
+        <v>35</v>
+      </c>
+      <c r="G112" t="s">
+        <v>35</v>
+      </c>
+      <c r="H112" t="s">
+        <v>230</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B113" t="s">
+        <v>231</v>
+      </c>
+      <c r="C113" t="s">
+        <v>128</v>
+      </c>
+      <c r="D113" t="s">
+        <v>35</v>
+      </c>
+      <c r="G113" t="s">
+        <v>35</v>
+      </c>
+      <c r="H113" t="s">
+        <v>232</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B114" t="s">
+        <v>233</v>
+      </c>
+      <c r="C114" t="s">
+        <v>128</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" t="s">
+        <v>35</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" t="s">
+        <v>234</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B115" t="s">
+        <v>235</v>
+      </c>
+      <c r="C115" t="s">
+        <v>128</v>
+      </c>
+      <c r="D115" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" t="s">
+        <v>35</v>
+      </c>
+      <c r="H115" t="s">
+        <v>236</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B116" t="s">
+        <v>237</v>
+      </c>
+      <c r="C116" t="s">
+        <v>128</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" t="s">
+        <v>238</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="B117" t="s">
+        <v>239</v>
+      </c>
+      <c r="C117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" t="s">
+        <v>240</v>
+      </c>
+      <c r="K117" t="s">
+        <v>155</v>
+      </c>
+      <c r="N117" t="s">
+        <v>241</v>
+      </c>
+      <c r="R117">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B118" t="s">
+        <v>147</v>
+      </c>
+      <c r="C118" t="s">
+        <v>242</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" t="s">
+        <v>243</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B119" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" t="s">
+        <v>242</v>
+      </c>
+      <c r="D119" t="s">
+        <v>173</v>
+      </c>
+      <c r="G119" t="s">
+        <v>173</v>
+      </c>
+      <c r="H119" t="s">
+        <v>245</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B120" t="s">
+        <v>246</v>
+      </c>
+      <c r="C120" t="s">
+        <v>242</v>
+      </c>
+      <c r="D120" t="s">
+        <v>178</v>
+      </c>
+      <c r="G120" t="s">
+        <v>178</v>
+      </c>
+      <c r="H120" t="s">
+        <v>247</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B121" t="s">
+        <v>248</v>
+      </c>
+      <c r="C121" t="s">
+        <v>242</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" t="s">
+        <v>173</v>
+      </c>
+      <c r="F121" t="s">
+        <v>178</v>
+      </c>
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" t="s">
+        <v>249</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B122" t="s">
+        <v>250</v>
+      </c>
+      <c r="C122" t="s">
+        <v>251</v>
+      </c>
+      <c r="G122" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" t="s">
+        <v>252</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B123" t="s">
+        <v>253</v>
+      </c>
+      <c r="C123" t="s">
+        <v>251</v>
+      </c>
+      <c r="D123" t="s">
+        <v>254</v>
+      </c>
+      <c r="G123" t="s">
+        <v>254</v>
+      </c>
+      <c r="H123" t="s">
+        <v>255</v>
+      </c>
+      <c r="K123" t="s">
+        <v>256</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B124" t="s">
+        <v>257</v>
+      </c>
+      <c r="C124" t="s">
+        <v>251</v>
+      </c>
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" t="s">
+        <v>254</v>
+      </c>
+      <c r="G124" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" t="s">
+        <v>258</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B125" t="s">
+        <v>259</v>
+      </c>
+      <c r="C125" t="s">
+        <v>251</v>
+      </c>
+      <c r="D125" t="s">
+        <v>254</v>
+      </c>
+      <c r="G125" t="s">
+        <v>254</v>
+      </c>
+      <c r="H125" t="s">
+        <v>260</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B126" t="s">
+        <v>261</v>
+      </c>
+      <c r="C126" t="s">
+        <v>251</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" t="s">
+        <v>262</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B127" t="s">
+        <v>263</v>
+      </c>
+      <c r="C127" t="s">
+        <v>251</v>
+      </c>
+      <c r="D127" t="s">
+        <v>254</v>
+      </c>
+      <c r="G127" t="s">
+        <v>254</v>
+      </c>
+      <c r="H127" t="s">
+        <v>264</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B128" t="s">
+        <v>265</v>
+      </c>
+      <c r="C128" t="s">
+        <v>251</v>
+      </c>
+      <c r="D128" t="s">
+        <v>254</v>
+      </c>
+      <c r="G128" t="s">
+        <v>254</v>
+      </c>
+      <c r="H128" t="s">
+        <v>266</v>
+      </c>
+      <c r="L128" t="s">
+        <v>198</v>
+      </c>
+      <c r="M128" t="s">
+        <v>199</v>
+      </c>
+      <c r="N128" t="s">
+        <v>254</v>
+      </c>
+      <c r="O128" t="s">
+        <v>267</v>
+      </c>
+      <c r="P128" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>268</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B129" t="s">
+        <v>267</v>
+      </c>
+      <c r="C129" t="s">
+        <v>251</v>
+      </c>
+      <c r="D129" t="s">
+        <v>254</v>
+      </c>
+      <c r="G129" t="s">
+        <v>254</v>
+      </c>
+      <c r="H129" t="s">
+        <v>269</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B130" t="s">
+        <v>268</v>
+      </c>
+      <c r="C130" t="s">
+        <v>251</v>
+      </c>
+      <c r="D130" t="s">
+        <v>254</v>
+      </c>
+      <c r="G130" t="s">
+        <v>254</v>
+      </c>
+      <c r="H130" t="s">
+        <v>270</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B131" t="s">
+        <v>271</v>
+      </c>
+      <c r="C131" t="s">
+        <v>251</v>
+      </c>
+      <c r="D131" t="s">
+        <v>178</v>
+      </c>
+      <c r="G131" t="s">
+        <v>178</v>
+      </c>
+      <c r="H131" t="s">
+        <v>272</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B132" t="s">
+        <v>273</v>
+      </c>
+      <c r="C132" t="s">
+        <v>251</v>
+      </c>
+      <c r="D132" t="s">
+        <v>173</v>
+      </c>
+      <c r="G132" t="s">
+        <v>173</v>
+      </c>
+      <c r="H132" t="s">
+        <v>274</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B133" t="s">
+        <v>275</v>
+      </c>
+      <c r="C133" t="s">
+        <v>251</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" t="s">
+        <v>276</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B134" t="s">
+        <v>277</v>
+      </c>
+      <c r="C134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" t="s">
+        <v>278</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B135" t="s">
+        <v>279</v>
+      </c>
+      <c r="C135" t="s">
+        <v>280</v>
+      </c>
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" t="s">
+        <v>281</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+      <c r="B136" t="s">
+        <v>282</v>
+      </c>
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" t="s">
+        <v>283</v>
+      </c>
+      <c r="K136" t="s">
+        <v>155</v>
+      </c>
+      <c r="N136" t="s">
+        <v>284</v>
+      </c>
+      <c r="R136">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="B137" t="s">
+        <v>285</v>
+      </c>
+      <c r="C137" t="s">
+        <v>286</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" t="s">
+        <v>287</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="B138" t="s">
+        <v>288</v>
+      </c>
+      <c r="C138" t="s">
+        <v>289</v>
+      </c>
+      <c r="D138" t="s">
+        <v>290</v>
+      </c>
+      <c r="G138" t="s">
+        <v>290</v>
+      </c>
+      <c r="H138" t="s">
+        <v>291</v>
+      </c>
+      <c r="K138" t="s">
+        <v>292</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="B139" t="s">
+        <v>293</v>
+      </c>
+      <c r="C139" t="s">
+        <v>289</v>
+      </c>
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" t="s">
+        <v>290</v>
+      </c>
+      <c r="G139" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" t="s">
+        <v>294</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="B140" t="s">
+        <v>295</v>
+      </c>
+      <c r="C140" t="s">
+        <v>289</v>
+      </c>
+      <c r="D140" t="s">
+        <v>290</v>
+      </c>
+      <c r="G140" t="s">
+        <v>290</v>
+      </c>
+      <c r="H140" t="s">
+        <v>296</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="B141" t="s">
+        <v>297</v>
+      </c>
+      <c r="C141" t="s">
+        <v>289</v>
+      </c>
+      <c r="D141" t="s">
+        <v>290</v>
+      </c>
+      <c r="G141" t="s">
+        <v>290</v>
+      </c>
+      <c r="H141" t="s">
+        <v>298</v>
+      </c>
+      <c r="L141" t="s">
+        <v>198</v>
+      </c>
+      <c r="M141" t="s">
+        <v>226</v>
+      </c>
+      <c r="N141" t="s">
+        <v>290</v>
+      </c>
+      <c r="O141" t="s">
+        <v>299</v>
+      </c>
+      <c r="P141" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>300</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="B142" t="s">
+        <v>299</v>
+      </c>
+      <c r="C142" t="s">
+        <v>289</v>
+      </c>
+      <c r="D142" t="s">
+        <v>290</v>
+      </c>
+      <c r="G142" t="s">
+        <v>290</v>
+      </c>
+      <c r="H142" t="s">
+        <v>301</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="B143" t="s">
+        <v>300</v>
+      </c>
+      <c r="C143" t="s">
+        <v>289</v>
+      </c>
+      <c r="D143" t="s">
+        <v>290</v>
+      </c>
+      <c r="G143" t="s">
+        <v>290</v>
+      </c>
+      <c r="H143" t="s">
+        <v>302</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="B144" t="s">
+        <v>303</v>
+      </c>
+      <c r="C144" t="s">
+        <v>289</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" t="s">
+        <v>304</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="B145" t="s">
+        <v>305</v>
+      </c>
+      <c r="C145" t="s">
+        <v>289</v>
+      </c>
+      <c r="G145" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" t="s">
+        <v>306</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="B146" t="s">
+        <v>307</v>
+      </c>
+      <c r="C146" t="s">
+        <v>308</v>
+      </c>
+      <c r="D146" t="s">
+        <v>309</v>
+      </c>
+      <c r="G146" t="s">
+        <v>309</v>
+      </c>
+      <c r="H146" t="s">
+        <v>310</v>
+      </c>
+      <c r="K146" t="s">
+        <v>311</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="B147" t="s">
+        <v>312</v>
+      </c>
+      <c r="C147" t="s">
+        <v>308</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" t="s">
+        <v>313</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="B148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C148" t="s">
+        <v>308</v>
+      </c>
+      <c r="D148" t="s">
+        <v>309</v>
+      </c>
+      <c r="G148" t="s">
+        <v>309</v>
+      </c>
+      <c r="H148" t="s">
+        <v>315</v>
+      </c>
+      <c r="L148" t="s">
+        <v>198</v>
+      </c>
+      <c r="M148" t="s">
+        <v>199</v>
+      </c>
+      <c r="N148" t="s">
+        <v>309</v>
+      </c>
+      <c r="O148" t="s">
+        <v>316</v>
+      </c>
+      <c r="P148" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>317</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="B149" t="s">
+        <v>316</v>
+      </c>
+      <c r="C149" t="s">
+        <v>308</v>
+      </c>
+      <c r="D149" t="s">
+        <v>309</v>
+      </c>
+      <c r="G149" t="s">
+        <v>309</v>
+      </c>
+      <c r="H149" t="s">
+        <v>318</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="B150" t="s">
+        <v>317</v>
+      </c>
+      <c r="C150" t="s">
+        <v>308</v>
+      </c>
+      <c r="D150" t="s">
+        <v>309</v>
+      </c>
+      <c r="G150" t="s">
+        <v>309</v>
+      </c>
+      <c r="H150" t="s">
+        <v>319</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="B151" t="s">
+        <v>320</v>
+      </c>
+      <c r="C151" t="s">
+        <v>289</v>
+      </c>
+      <c r="D151" t="s">
+        <v>290</v>
+      </c>
+      <c r="G151" t="s">
+        <v>290</v>
+      </c>
+      <c r="H151" t="s">
+        <v>321</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="B152" t="s">
+        <v>322</v>
+      </c>
+      <c r="C152" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152" t="s">
+        <v>323</v>
+      </c>
+      <c r="K152" t="s">
+        <v>155</v>
+      </c>
+      <c r="N152" t="s">
+        <v>324</v>
+      </c>
+      <c r="R152">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+      <c r="B153" t="s">
+        <v>325</v>
+      </c>
+      <c r="C153" t="s">
+        <v>326</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>17</v>
+      </c>
+      <c r="H153" t="s">
+        <v>327</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+      <c r="B154" t="s">
+        <v>328</v>
+      </c>
+      <c r="C154" t="s">
+        <v>326</v>
+      </c>
+      <c r="D154" t="s">
+        <v>329</v>
+      </c>
+      <c r="G154" t="s">
+        <v>329</v>
+      </c>
+      <c r="H154" t="s">
+        <v>330</v>
+      </c>
+      <c r="K154" t="s">
+        <v>331</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+      <c r="B155" t="s">
+        <v>332</v>
+      </c>
+      <c r="C155" t="s">
+        <v>326</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" t="s">
+        <v>329</v>
+      </c>
+      <c r="G155" t="s">
+        <v>17</v>
+      </c>
+      <c r="H155" t="s">
+        <v>333</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+      <c r="B156" t="s">
+        <v>334</v>
+      </c>
+      <c r="C156" t="s">
+        <v>326</v>
+      </c>
+      <c r="D156" t="s">
+        <v>329</v>
+      </c>
+      <c r="G156" t="s">
+        <v>329</v>
+      </c>
+      <c r="H156" t="s">
+        <v>335</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+      <c r="B157" t="s">
+        <v>336</v>
+      </c>
+      <c r="C157" t="s">
+        <v>326</v>
+      </c>
+      <c r="D157" t="s">
+        <v>329</v>
+      </c>
+      <c r="G157" t="s">
+        <v>329</v>
+      </c>
+      <c r="H157" t="s">
+        <v>337</v>
+      </c>
+      <c r="L157" t="s">
+        <v>198</v>
+      </c>
+      <c r="M157" t="s">
+        <v>338</v>
+      </c>
+      <c r="N157" t="s">
+        <v>329</v>
+      </c>
+      <c r="O157" t="s">
+        <v>339</v>
+      </c>
+      <c r="P157" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>340</v>
+      </c>
+      <c r="T157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+      <c r="B158" t="s">
+        <v>339</v>
+      </c>
+      <c r="C158" t="s">
+        <v>326</v>
+      </c>
+      <c r="D158" t="s">
+        <v>329</v>
+      </c>
+      <c r="G158" t="s">
+        <v>329</v>
+      </c>
+      <c r="H158" t="s">
+        <v>341</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+      <c r="B159" t="s">
+        <v>340</v>
+      </c>
+      <c r="C159" t="s">
+        <v>326</v>
+      </c>
+      <c r="D159" t="s">
+        <v>329</v>
+      </c>
+      <c r="G159" t="s">
+        <v>329</v>
+      </c>
+      <c r="H159" t="s">
+        <v>342</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+      <c r="B160" t="s">
+        <v>343</v>
+      </c>
+      <c r="C160" t="s">
+        <v>326</v>
+      </c>
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+      <c r="G160" t="s">
+        <v>17</v>
+      </c>
+      <c r="H160" t="s">
+        <v>344</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+      <c r="B161" t="s">
+        <v>345</v>
+      </c>
+      <c r="C161" t="s">
+        <v>326</v>
+      </c>
+      <c r="D161" t="s">
+        <v>329</v>
+      </c>
+      <c r="G161" t="s">
+        <v>329</v>
+      </c>
+      <c r="H161" t="s">
+        <v>346</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+      <c r="B162" t="s">
+        <v>347</v>
+      </c>
+      <c r="C162" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" t="s">
+        <v>15</v>
+      </c>
+      <c r="H162" t="s">
+        <v>348</v>
+      </c>
+      <c r="K162" t="s">
+        <v>155</v>
+      </c>
+      <c r="N162" t="s">
+        <v>349</v>
+      </c>
+      <c r="R162">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+      <c r="B163" t="s">
+        <v>350</v>
+      </c>
+      <c r="C163" t="s">
+        <v>351</v>
+      </c>
+      <c r="D163" t="s">
+        <v>352</v>
+      </c>
+      <c r="G163" t="s">
+        <v>352</v>
+      </c>
+      <c r="H163" t="s">
+        <v>353</v>
+      </c>
+      <c r="K163" t="s">
+        <v>354</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+      <c r="B164" t="s">
+        <v>355</v>
+      </c>
+      <c r="C164" t="s">
+        <v>351</v>
+      </c>
+      <c r="D164" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" t="s">
+        <v>352</v>
+      </c>
+      <c r="G164" t="s">
+        <v>17</v>
+      </c>
+      <c r="H164" t="s">
+        <v>356</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+      <c r="B165" t="s">
+        <v>357</v>
+      </c>
+      <c r="C165" t="s">
+        <v>351</v>
+      </c>
+      <c r="D165" t="s">
+        <v>352</v>
+      </c>
+      <c r="G165" t="s">
+        <v>352</v>
+      </c>
+      <c r="H165" t="s">
+        <v>358</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+      <c r="B166" t="s">
+        <v>359</v>
+      </c>
+      <c r="C166" t="s">
+        <v>351</v>
+      </c>
+      <c r="D166" t="s">
+        <v>352</v>
+      </c>
+      <c r="G166" t="s">
+        <v>352</v>
+      </c>
+      <c r="H166" t="s">
+        <v>360</v>
+      </c>
+      <c r="L166" t="s">
+        <v>198</v>
+      </c>
+      <c r="M166" t="s">
+        <v>199</v>
+      </c>
+      <c r="N166" t="s">
+        <v>352</v>
+      </c>
+      <c r="O166" t="s">
+        <v>361</v>
+      </c>
+      <c r="P166" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>362</v>
+      </c>
+      <c r="T166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+      <c r="B167" t="s">
+        <v>361</v>
+      </c>
+      <c r="C167" t="s">
+        <v>351</v>
+      </c>
+      <c r="D167" t="s">
+        <v>352</v>
+      </c>
+      <c r="G167" t="s">
+        <v>352</v>
+      </c>
+      <c r="H167" t="s">
+        <v>363</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+      <c r="B168" t="s">
+        <v>362</v>
+      </c>
+      <c r="C168" t="s">
+        <v>351</v>
+      </c>
+      <c r="D168" t="s">
+        <v>352</v>
+      </c>
+      <c r="G168" t="s">
+        <v>352</v>
+      </c>
+      <c r="H168" t="s">
+        <v>364</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+      <c r="B169" t="s">
+        <v>365</v>
+      </c>
+      <c r="C169" t="s">
+        <v>351</v>
+      </c>
+      <c r="G169" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" t="s">
+        <v>366</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+      <c r="B170" t="s">
+        <v>367</v>
+      </c>
+      <c r="C170" t="s">
+        <v>351</v>
+      </c>
+      <c r="D170" t="s">
+        <v>368</v>
+      </c>
+      <c r="G170" t="s">
+        <v>368</v>
+      </c>
+      <c r="H170" t="s">
+        <v>369</v>
+      </c>
+      <c r="L170" t="s">
+        <v>198</v>
+      </c>
+      <c r="M170" t="s">
+        <v>226</v>
+      </c>
+      <c r="N170" t="s">
+        <v>368</v>
+      </c>
+      <c r="O170" t="s">
+        <v>370</v>
+      </c>
+      <c r="P170" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>371</v>
+      </c>
+      <c r="T170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+      <c r="B171" t="s">
+        <v>370</v>
+      </c>
+      <c r="C171" t="s">
+        <v>351</v>
+      </c>
+      <c r="D171" t="s">
+        <v>368</v>
+      </c>
+      <c r="G171" t="s">
+        <v>368</v>
+      </c>
+      <c r="H171" t="s">
+        <v>372</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+      <c r="B172" t="s">
+        <v>371</v>
+      </c>
+      <c r="C172" t="s">
+        <v>351</v>
+      </c>
+      <c r="D172" t="s">
+        <v>368</v>
+      </c>
+      <c r="G172" t="s">
+        <v>368</v>
+      </c>
+      <c r="H172" t="s">
+        <v>373</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+      <c r="B173" t="s">
+        <v>374</v>
+      </c>
+      <c r="C173" t="s">
+        <v>14</v>
+      </c>
+      <c r="G173" t="s">
+        <v>15</v>
+      </c>
+      <c r="H173" t="s">
+        <v>375</v>
+      </c>
+      <c r="K173" t="s">
+        <v>155</v>
+      </c>
+      <c r="N173" t="s">
+        <v>376</v>
+      </c>
+      <c r="R173">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+      <c r="B174" t="s">
+        <v>377</v>
+      </c>
+      <c r="C174" t="s">
+        <v>378</v>
+      </c>
+      <c r="D174" t="s">
+        <v>379</v>
+      </c>
+      <c r="G174" t="s">
+        <v>379</v>
+      </c>
+      <c r="H174" t="s">
+        <v>380</v>
+      </c>
+      <c r="K174" t="s">
+        <v>381</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+      <c r="B175" t="s">
+        <v>382</v>
+      </c>
+      <c r="C175" t="s">
+        <v>378</v>
+      </c>
+      <c r="D175" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175" t="s">
+        <v>379</v>
+      </c>
+      <c r="G175" t="s">
+        <v>17</v>
+      </c>
+      <c r="H175" t="s">
+        <v>383</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+      <c r="B176" t="s">
+        <v>384</v>
+      </c>
+      <c r="C176" t="s">
+        <v>378</v>
+      </c>
+      <c r="D176" t="s">
+        <v>379</v>
+      </c>
+      <c r="G176" t="s">
+        <v>379</v>
+      </c>
+      <c r="H176" t="s">
+        <v>385</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+      <c r="B177" t="s">
+        <v>386</v>
+      </c>
+      <c r="C177" t="s">
+        <v>378</v>
+      </c>
+      <c r="D177" t="s">
+        <v>379</v>
+      </c>
+      <c r="G177" t="s">
+        <v>379</v>
+      </c>
+      <c r="H177" t="s">
+        <v>387</v>
+      </c>
+      <c r="L177" t="s">
+        <v>198</v>
+      </c>
+      <c r="M177" t="s">
+        <v>199</v>
+      </c>
+      <c r="N177" t="s">
+        <v>379</v>
+      </c>
+      <c r="O177" t="s">
+        <v>388</v>
+      </c>
+      <c r="P177" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>389</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+      <c r="B178" t="s">
+        <v>388</v>
+      </c>
+      <c r="C178" t="s">
+        <v>378</v>
+      </c>
+      <c r="D178" t="s">
+        <v>379</v>
+      </c>
+      <c r="G178" t="s">
+        <v>379</v>
+      </c>
+      <c r="H178" t="s">
+        <v>390</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+      <c r="B179" t="s">
+        <v>389</v>
+      </c>
+      <c r="C179" t="s">
+        <v>378</v>
+      </c>
+      <c r="D179" t="s">
+        <v>379</v>
+      </c>
+      <c r="G179" t="s">
+        <v>379</v>
+      </c>
+      <c r="H179" t="s">
+        <v>391</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+      <c r="B180" t="s">
+        <v>392</v>
+      </c>
+      <c r="C180" t="s">
+        <v>14</v>
+      </c>
+      <c r="G180" t="s">
+        <v>15</v>
+      </c>
+      <c r="H180" t="s">
+        <v>393</v>
+      </c>
+      <c r="K180" t="s">
+        <v>155</v>
+      </c>
+      <c r="N180" t="s">
+        <v>394</v>
+      </c>
+      <c r="R180">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+      <c r="B181" t="s">
+        <v>395</v>
+      </c>
+      <c r="C181" t="s">
+        <v>396</v>
+      </c>
+      <c r="D181" t="s">
+        <v>397</v>
+      </c>
+      <c r="G181" t="s">
+        <v>397</v>
+      </c>
+      <c r="H181" t="s">
+        <v>398</v>
+      </c>
+      <c r="K181" t="s">
+        <v>399</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+      <c r="B182" t="s">
+        <v>400</v>
+      </c>
+      <c r="C182" t="s">
+        <v>396</v>
+      </c>
+      <c r="D182" t="s">
+        <v>17</v>
+      </c>
+      <c r="E182" t="s">
+        <v>397</v>
+      </c>
+      <c r="G182" t="s">
+        <v>17</v>
+      </c>
+      <c r="H182" t="s">
+        <v>401</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+      <c r="B183" t="s">
+        <v>402</v>
+      </c>
+      <c r="C183" t="s">
+        <v>396</v>
+      </c>
+      <c r="D183" t="s">
+        <v>397</v>
+      </c>
+      <c r="G183" t="s">
+        <v>397</v>
+      </c>
+      <c r="H183" t="s">
+        <v>403</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+      <c r="B184" t="s">
+        <v>404</v>
+      </c>
+      <c r="C184" t="s">
+        <v>396</v>
+      </c>
+      <c r="D184" t="s">
+        <v>397</v>
+      </c>
+      <c r="G184" t="s">
+        <v>397</v>
+      </c>
+      <c r="H184" t="s">
+        <v>405</v>
+      </c>
+      <c r="L184" t="s">
+        <v>198</v>
+      </c>
+      <c r="M184" t="s">
+        <v>226</v>
+      </c>
+      <c r="N184" t="s">
+        <v>397</v>
+      </c>
+      <c r="O184" t="s">
+        <v>406</v>
+      </c>
+      <c r="P184" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>407</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+      <c r="B185" t="s">
+        <v>406</v>
+      </c>
+      <c r="C185" t="s">
+        <v>396</v>
+      </c>
+      <c r="D185" t="s">
+        <v>397</v>
+      </c>
+      <c r="G185" t="s">
+        <v>397</v>
+      </c>
+      <c r="H185" t="s">
+        <v>408</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+      <c r="B186" t="s">
+        <v>407</v>
+      </c>
+      <c r="C186" t="s">
+        <v>396</v>
+      </c>
+      <c r="D186" t="s">
+        <v>397</v>
+      </c>
+      <c r="G186" t="s">
+        <v>397</v>
+      </c>
+      <c r="H186" t="s">
+        <v>409</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+      <c r="B187" t="s">
+        <v>410</v>
+      </c>
+      <c r="C187" t="s">
+        <v>14</v>
+      </c>
+      <c r="G187" t="s">
+        <v>15</v>
+      </c>
+      <c r="H187" t="s">
+        <v>411</v>
+      </c>
+      <c r="K187" t="s">
+        <v>155</v>
+      </c>
+      <c r="N187" t="s">
+        <v>412</v>
+      </c>
+      <c r="R187">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+      <c r="B188" t="s">
+        <v>413</v>
+      </c>
+      <c r="C188" t="s">
+        <v>414</v>
+      </c>
+      <c r="D188" t="s">
+        <v>415</v>
+      </c>
+      <c r="G188" t="s">
+        <v>415</v>
+      </c>
+      <c r="H188" t="s">
+        <v>416</v>
+      </c>
+      <c r="K188" t="s">
+        <v>417</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+      <c r="B189" t="s">
+        <v>418</v>
+      </c>
+      <c r="C189" t="s">
+        <v>414</v>
+      </c>
+      <c r="D189" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" t="s">
+        <v>415</v>
+      </c>
+      <c r="G189" t="s">
+        <v>17</v>
+      </c>
+      <c r="H189" t="s">
+        <v>419</v>
+      </c>
+      <c r="P189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+      <c r="B190" t="s">
+        <v>420</v>
+      </c>
+      <c r="C190" t="s">
+        <v>414</v>
+      </c>
+      <c r="D190" t="s">
+        <v>415</v>
+      </c>
+      <c r="G190" t="s">
+        <v>415</v>
+      </c>
+      <c r="H190" t="s">
+        <v>421</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+      <c r="B191" t="s">
+        <v>422</v>
+      </c>
+      <c r="C191" t="s">
+        <v>414</v>
+      </c>
+      <c r="D191" t="s">
+        <v>415</v>
+      </c>
+      <c r="G191" t="s">
+        <v>415</v>
+      </c>
+      <c r="H191" t="s">
+        <v>423</v>
+      </c>
+      <c r="L191" t="s">
+        <v>198</v>
+      </c>
+      <c r="M191" t="s">
+        <v>338</v>
+      </c>
+      <c r="N191" t="s">
+        <v>415</v>
+      </c>
+      <c r="O191" t="s">
+        <v>424</v>
+      </c>
+      <c r="P191" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>425</v>
+      </c>
+      <c r="T191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+      <c r="B192" t="s">
+        <v>424</v>
+      </c>
+      <c r="C192" t="s">
+        <v>414</v>
+      </c>
+      <c r="D192" t="s">
+        <v>415</v>
+      </c>
+      <c r="G192" t="s">
+        <v>415</v>
+      </c>
+      <c r="H192" t="s">
+        <v>426</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+      <c r="B193" t="s">
+        <v>425</v>
+      </c>
+      <c r="C193" t="s">
+        <v>414</v>
+      </c>
+      <c r="D193" t="s">
+        <v>415</v>
+      </c>
+      <c r="G193" t="s">
+        <v>415</v>
+      </c>
+      <c r="H193" t="s">
+        <v>427</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+      <c r="B194" t="s">
+        <v>428</v>
+      </c>
+      <c r="C194" t="s">
+        <v>14</v>
+      </c>
+      <c r="G194" t="s">
+        <v>15</v>
+      </c>
+      <c r="H194" t="s">
+        <v>429</v>
+      </c>
+      <c r="K194" t="s">
+        <v>155</v>
+      </c>
+      <c r="N194" t="s">
+        <v>430</v>
+      </c>
+      <c r="R194">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="B195" t="s">
+        <v>431</v>
+      </c>
+      <c r="C195" t="s">
+        <v>432</v>
+      </c>
+      <c r="D195" t="s">
+        <v>433</v>
+      </c>
+      <c r="G195" t="s">
+        <v>433</v>
+      </c>
+      <c r="H195" t="s">
+        <v>434</v>
+      </c>
+      <c r="K195" t="s">
+        <v>435</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="B196" t="s">
+        <v>436</v>
+      </c>
+      <c r="C196" t="s">
+        <v>432</v>
+      </c>
+      <c r="D196" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196" t="s">
+        <v>433</v>
+      </c>
+      <c r="G196" t="s">
+        <v>17</v>
+      </c>
+      <c r="H196" t="s">
+        <v>437</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="B197" t="s">
+        <v>438</v>
+      </c>
+      <c r="C197" t="s">
+        <v>432</v>
+      </c>
+      <c r="D197" t="s">
+        <v>433</v>
+      </c>
+      <c r="G197" t="s">
+        <v>433</v>
+      </c>
+      <c r="H197" t="s">
+        <v>439</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="B198" t="s">
+        <v>440</v>
+      </c>
+      <c r="C198" t="s">
+        <v>432</v>
+      </c>
+      <c r="D198" t="s">
+        <v>433</v>
+      </c>
+      <c r="G198" t="s">
+        <v>433</v>
+      </c>
+      <c r="H198" t="s">
+        <v>441</v>
+      </c>
+      <c r="L198" t="s">
+        <v>198</v>
+      </c>
+      <c r="M198" t="s">
+        <v>199</v>
+      </c>
+      <c r="N198" t="s">
+        <v>433</v>
+      </c>
+      <c r="O198" t="s">
+        <v>442</v>
+      </c>
+      <c r="P198" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>443</v>
+      </c>
+      <c r="T198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="B199" t="s">
+        <v>442</v>
+      </c>
+      <c r="C199" t="s">
+        <v>432</v>
+      </c>
+      <c r="D199" t="s">
+        <v>433</v>
+      </c>
+      <c r="G199" t="s">
+        <v>433</v>
+      </c>
+      <c r="H199" t="s">
+        <v>444</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="B200" t="s">
+        <v>443</v>
+      </c>
+      <c r="C200" t="s">
+        <v>432</v>
+      </c>
+      <c r="D200" t="s">
+        <v>433</v>
+      </c>
+      <c r="G200" t="s">
+        <v>433</v>
+      </c>
+      <c r="H200" t="s">
+        <v>445</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="B201" t="s">
+        <v>446</v>
+      </c>
+      <c r="C201" t="s">
+        <v>14</v>
+      </c>
+      <c r="G201" t="s">
+        <v>15</v>
+      </c>
+      <c r="H201" t="s">
+        <v>447</v>
+      </c>
+      <c r="K201" t="s">
+        <v>155</v>
+      </c>
+      <c r="N201" t="s">
+        <v>448</v>
+      </c>
+      <c r="R201">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+      <c r="B202" t="s">
+        <v>449</v>
+      </c>
+      <c r="C202" t="s">
+        <v>450</v>
+      </c>
+      <c r="D202" t="s">
+        <v>20</v>
+      </c>
+      <c r="G202" t="s">
+        <v>20</v>
+      </c>
+      <c r="H202" t="s">
+        <v>451</v>
+      </c>
+      <c r="K202" t="s">
+        <v>452</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+      <c r="B203" t="s">
+        <v>453</v>
+      </c>
+      <c r="C203" t="s">
+        <v>450</v>
+      </c>
+      <c r="D203" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203" t="s">
+        <v>20</v>
+      </c>
+      <c r="G203" t="s">
+        <v>17</v>
+      </c>
+      <c r="H203" t="s">
+        <v>454</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+      <c r="B204" t="s">
+        <v>455</v>
+      </c>
+      <c r="C204" t="s">
+        <v>450</v>
+      </c>
+      <c r="D204" t="s">
+        <v>20</v>
+      </c>
+      <c r="G204" t="s">
+        <v>20</v>
+      </c>
+      <c r="H204" t="s">
+        <v>456</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+      <c r="B205" t="s">
+        <v>457</v>
+      </c>
+      <c r="C205" t="s">
+        <v>450</v>
+      </c>
+      <c r="D205" t="s">
+        <v>20</v>
+      </c>
+      <c r="G205" t="s">
+        <v>20</v>
+      </c>
+      <c r="H205" t="s">
+        <v>458</v>
+      </c>
+      <c r="L205" t="s">
+        <v>198</v>
+      </c>
+      <c r="M205" t="s">
+        <v>226</v>
+      </c>
+      <c r="N205" t="s">
+        <v>20</v>
+      </c>
+      <c r="O205" t="s">
+        <v>459</v>
+      </c>
+      <c r="P205" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>460</v>
+      </c>
+      <c r="T205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+      <c r="B206" t="s">
+        <v>459</v>
+      </c>
+      <c r="C206" t="s">
+        <v>450</v>
+      </c>
+      <c r="D206" t="s">
+        <v>20</v>
+      </c>
+      <c r="G206" t="s">
+        <v>20</v>
+      </c>
+      <c r="H206" t="s">
+        <v>461</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+      <c r="B207" t="s">
+        <v>460</v>
+      </c>
+      <c r="C207" t="s">
+        <v>450</v>
+      </c>
+      <c r="D207" t="s">
+        <v>20</v>
+      </c>
+      <c r="G207" t="s">
+        <v>20</v>
+      </c>
+      <c r="H207" t="s">
+        <v>462</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+      <c r="B208" t="s">
+        <v>463</v>
+      </c>
+      <c r="C208" t="s">
+        <v>14</v>
+      </c>
+      <c r="G208" t="s">
+        <v>15</v>
+      </c>
+      <c r="H208" t="s">
+        <v>464</v>
+      </c>
+      <c r="K208" t="s">
+        <v>155</v>
+      </c>
+      <c r="N208" t="s">
+        <v>465</v>
+      </c>
+      <c r="R208">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+      <c r="B209" t="s">
+        <v>466</v>
+      </c>
+      <c r="C209" t="s">
+        <v>467</v>
+      </c>
+      <c r="D209" t="s">
+        <v>17</v>
+      </c>
+      <c r="G209" t="s">
+        <v>17</v>
+      </c>
+      <c r="H209" t="s">
+        <v>468</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+      <c r="B210" t="s">
+        <v>469</v>
+      </c>
+      <c r="C210" t="s">
+        <v>467</v>
+      </c>
+      <c r="D210" t="s">
+        <v>329</v>
+      </c>
+      <c r="G210" t="s">
+        <v>329</v>
+      </c>
+      <c r="H210" t="s">
+        <v>470</v>
+      </c>
+      <c r="P210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+      <c r="B211" t="s">
+        <v>471</v>
+      </c>
+      <c r="C211" t="s">
+        <v>467</v>
+      </c>
+      <c r="D211" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" t="s">
+        <v>329</v>
+      </c>
+      <c r="G211" t="s">
+        <v>17</v>
+      </c>
+      <c r="H211" t="s">
+        <v>472</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+      <c r="B212" t="s">
+        <v>473</v>
+      </c>
+      <c r="C212" t="s">
+        <v>467</v>
+      </c>
+      <c r="D212" t="s">
+        <v>329</v>
+      </c>
+      <c r="G212" t="s">
+        <v>329</v>
+      </c>
+      <c r="H212" t="s">
+        <v>474</v>
+      </c>
+      <c r="P212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+      <c r="B213" t="s">
+        <v>475</v>
+      </c>
+      <c r="C213" t="s">
+        <v>467</v>
+      </c>
+      <c r="D213" t="s">
+        <v>476</v>
+      </c>
+      <c r="G213" t="s">
+        <v>476</v>
+      </c>
+      <c r="H213" t="s">
+        <v>477</v>
+      </c>
+      <c r="K213" t="s">
+        <v>478</v>
+      </c>
+      <c r="O213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+      <c r="B214" t="s">
+        <v>479</v>
+      </c>
+      <c r="C214" t="s">
+        <v>467</v>
+      </c>
+      <c r="D214" t="s">
+        <v>17</v>
+      </c>
+      <c r="G214" t="s">
+        <v>17</v>
+      </c>
+      <c r="H214" t="s">
+        <v>480</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+      <c r="B215" t="s">
+        <v>481</v>
+      </c>
+      <c r="C215" t="s">
+        <v>467</v>
+      </c>
+      <c r="D215" t="s">
+        <v>476</v>
+      </c>
+      <c r="G215" t="s">
+        <v>476</v>
+      </c>
+      <c r="H215" t="s">
+        <v>482</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+      <c r="B216" t="s">
+        <v>483</v>
+      </c>
+      <c r="C216" t="s">
+        <v>467</v>
+      </c>
+      <c r="D216" t="s">
+        <v>476</v>
+      </c>
+      <c r="G216" t="s">
+        <v>476</v>
+      </c>
+      <c r="H216" t="s">
+        <v>484</v>
+      </c>
+      <c r="K216" t="s">
+        <v>485</v>
+      </c>
+      <c r="O216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+      <c r="B217" t="s">
+        <v>486</v>
+      </c>
+      <c r="C217" t="s">
+        <v>467</v>
+      </c>
+      <c r="D217" t="s">
+        <v>17</v>
+      </c>
+      <c r="G217" t="s">
+        <v>17</v>
+      </c>
+      <c r="H217" t="s">
+        <v>487</v>
+      </c>
+      <c r="L217" t="s">
+        <v>198</v>
+      </c>
+      <c r="M217" t="s">
+        <v>199</v>
+      </c>
+      <c r="N217" t="s">
+        <v>476</v>
+      </c>
+      <c r="O217" t="s">
+        <v>488</v>
+      </c>
+      <c r="P217" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>489</v>
+      </c>
+      <c r="T217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+      <c r="B218" t="s">
+        <v>488</v>
+      </c>
+      <c r="C218" t="s">
+        <v>467</v>
+      </c>
+      <c r="D218" t="s">
+        <v>476</v>
+      </c>
+      <c r="G218" t="s">
+        <v>476</v>
+      </c>
+      <c r="H218" t="s">
+        <v>490</v>
+      </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+      <c r="B219" t="s">
+        <v>489</v>
+      </c>
+      <c r="C219" t="s">
+        <v>467</v>
+      </c>
+      <c r="D219" t="s">
+        <v>476</v>
+      </c>
+      <c r="G219" t="s">
+        <v>476</v>
+      </c>
+      <c r="H219" t="s">
+        <v>491</v>
+      </c>
+      <c r="P219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+      <c r="B220" t="s">
+        <v>492</v>
+      </c>
+      <c r="C220" t="s">
+        <v>467</v>
+      </c>
+      <c r="D220" t="s">
+        <v>493</v>
+      </c>
+      <c r="G220" t="s">
+        <v>493</v>
+      </c>
+      <c r="H220" t="s">
+        <v>494</v>
+      </c>
+      <c r="K220" t="s">
+        <v>495</v>
+      </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+      <c r="B221" t="s">
+        <v>496</v>
+      </c>
+      <c r="C221" t="s">
+        <v>467</v>
+      </c>
+      <c r="D221" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" t="s">
+        <v>493</v>
+      </c>
+      <c r="G221" t="s">
+        <v>17</v>
+      </c>
+      <c r="H221" t="s">
+        <v>497</v>
+      </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+      <c r="B222" t="s">
+        <v>498</v>
+      </c>
+      <c r="C222" t="s">
+        <v>467</v>
+      </c>
+      <c r="D222" t="s">
+        <v>493</v>
+      </c>
+      <c r="G222" t="s">
+        <v>493</v>
+      </c>
+      <c r="H222" t="s">
+        <v>499</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+      <c r="B223" t="s">
+        <v>500</v>
+      </c>
+      <c r="C223" t="s">
+        <v>467</v>
+      </c>
+      <c r="D223" t="s">
+        <v>17</v>
+      </c>
+      <c r="G223" t="s">
+        <v>17</v>
+      </c>
+      <c r="H223" t="s">
+        <v>501</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A225" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A226" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A227" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A228" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A229" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A230" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A231" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A232" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A233" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A234" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A235" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A236" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A237" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A238" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A239" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A240" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A241" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A242" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A243" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A244" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A245" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A246" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A247" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A248" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A249" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A250" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A251" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A252" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A253" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A254" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A255" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A256" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A257" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A258" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A259" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A260" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A261" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A262" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A263" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A264" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A265" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A266" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A267" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A268" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A269" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A270" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A271" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A272" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A273" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A274" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A275" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A276" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A277" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A278" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A279" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A280" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A281" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A282" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A283" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A284" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A285" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A286" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A287" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A288" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A289" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A290" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A291" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A292" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A293" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A294" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A295" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A296" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A297" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A298" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A299" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A300" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A301" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A302" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A303" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A304" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A305" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A306" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A307" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A308" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A309" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A310" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A311" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A312" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A313" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A314" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A315" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A316" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A317" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A318" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A319" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A320" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A321" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A322" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A323" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A324" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A325" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A326" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A327" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A328" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A329" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A330" t="s">
-        <v>106</v>
+        <v>465</v>
+      </c>
+      <c r="B224" t="s">
+        <v>502</v>
+      </c>
+      <c r="C224" t="s">
+        <v>14</v>
+      </c>
+      <c r="G224" t="s">
+        <v>15</v>
+      </c>
+      <c r="H224" t="s">
+        <v>503</v>
+      </c>
+      <c r="K224" t="s">
+        <v>504</v>
+      </c>
+      <c r="O224">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -4134,11 +8371,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4221,7 +8458,117 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B11" t="s">
+        <v>521</v>
+      </c>
+      <c r="C11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>528</v>
+      </c>
+      <c r="B13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>527</v>
+      </c>
+      <c r="B15" t="s">
+        <v>517</v>
+      </c>
+      <c r="C15" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>526</v>
+      </c>
+      <c r="B16" t="s">
+        <v>516</v>
+      </c>
+      <c r="C16" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -4232,11 +8579,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4247,10 +8594,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -4258,7 +8605,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -4266,7 +8613,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -4274,11 +8621,278 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFB11EE-9CC0-41A3-8BD0-443115CB2366}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>576</v>
+      </c>
+      <c r="B14" t="s">
+        <v>573</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>575</v>
+      </c>
+      <c r="B15" t="s">
+        <v>574</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>580</v>
+      </c>
+      <c r="B16" t="s">
+        <v>578</v>
+      </c>
+      <c r="C16" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>581</v>
+      </c>
+      <c r="B17" t="s">
+        <v>579</v>
+      </c>
+      <c r="C17" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>582</v>
+      </c>
+      <c r="B18" t="s">
+        <v>579</v>
+      </c>
+      <c r="C18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>583</v>
+      </c>
+      <c r="B19" t="s">
+        <v>579</v>
+      </c>
+      <c r="C19" t="s">
+        <v>577</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>